--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/adamills_deloitte_com_au/Documents/Documents/UiPath/WI4_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{745A4404-8669-4D4D-B6F5-BEE267471838}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF1BBB62-CFA3-492E-A041-3B0972F16C42}"/>
   <bookViews>
-    <workbookView xWindow="-41445" yWindow="1935" windowWidth="16875" windowHeight="10635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24870" yWindow="3420" windowWidth="16875" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +134,12 @@
   <si>
     <t>My Creds</t>
   </si>
+  <si>
+    <t>ACME_WorkItemPath</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -194,6 +200,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -589,7 +596,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2703,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ausdeloitte-my.sharepoint.com/personal/adamills_deloitte_com_au/Documents/Documents/UiPath/WI4_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF1BBB62-CFA3-492E-A041-3B0972F16C42}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE00B229-781F-4B2E-984E-3324014E92B8}"/>
   <bookViews>
-    <workbookView xWindow="-24870" yWindow="3420" windowWidth="16875" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="4620" windowWidth="15810" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -129,16 +137,13 @@
     <t>Login address</t>
   </si>
   <si>
-    <t>MyCreds</t>
-  </si>
-  <si>
-    <t>My Creds</t>
-  </si>
-  <si>
     <t>ACME_WorkItemPath</t>
   </si>
   <si>
     <t>https://acme-test.uipath.com/work-items/</t>
+  </si>
+  <si>
+    <t>ACME_MyCreds</t>
   </si>
 </sst>
 </file>
@@ -190,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -201,6 +206,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +524,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -598,13 +604,20 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2718,7 +2731,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2763,17 +2776,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
